--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/117.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/117.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1542786923450002</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.764478468876153</v>
+        <v>-1.89906654786209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06644024825982291</v>
+        <v>-0.07202936187924119</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2557016531438184</v>
+        <v>-0.3300835007400038</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1610172012199949</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.776691283238325</v>
+        <v>-1.896617374109346</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04795339368014633</v>
+        <v>-0.04598564149820002</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2122681695106473</v>
+        <v>-0.3052077025469677</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1740703591389856</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.840245453299083</v>
+        <v>-1.9361331241496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07902925319198581</v>
+        <v>0.03949618894139773</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2481998780116994</v>
+        <v>-0.3633928933849689</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1839848301480619</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.022364187690937</v>
+        <v>-2.082679026400058</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1530238920843311</v>
+        <v>0.1664219428448426</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2841064022068107</v>
+        <v>-0.4124676615488818</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1809856834985356</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.971321108615837</v>
+        <v>-1.92888397908645</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3329814982226388</v>
+        <v>0.3656518391043558</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3029175047254752</v>
+        <v>-0.4547143347645922</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1610062002167672</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.827527378798974</v>
+        <v>-1.784577906045603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4557345274355155</v>
+        <v>0.5191674980239332</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3023650240138986</v>
+        <v>-0.4625151735297584</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1300876277728369</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.558724263358849</v>
+        <v>-1.435409309319668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6416261856611267</v>
+        <v>0.7537829181494072</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.336837616789505</v>
+        <v>-0.4784064705784102</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1007075914461799</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.08916602713067</v>
+        <v>-0.9256726610011677</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7536381083902476</v>
+        <v>0.9151796908093371</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3305195040366041</v>
+        <v>-0.4489990713351494</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08270520248152836</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5361367698903555</v>
+        <v>-0.3175716227447846</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7085975512342284</v>
+        <v>0.9578718114363758</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3167531328017082</v>
+        <v>-0.4069019299359625</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07583933420046472</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.05137036091216967</v>
+        <v>0.3666497672272605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6655402581710481</v>
+        <v>0.9198041589877186</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2781267035649894</v>
+        <v>-0.3283851341081203</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07094121535651568</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5685602180503488</v>
+        <v>1.152667695831185</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6398727283599978</v>
+        <v>0.9219117705911403</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2249720778386651</v>
+        <v>-0.2067890089493996</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.05498361086083572</v>
       </c>
       <c r="E13" t="n">
-        <v>1.190683405648839</v>
+        <v>2.017701384324404</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4405169105707805</v>
+        <v>0.737935693636152</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.09233893060138397</v>
+        <v>-0.0420553157523122</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01819929441955053</v>
       </c>
       <c r="E14" t="n">
-        <v>1.746513629915508</v>
+        <v>2.888155994671382</v>
       </c>
       <c r="F14" t="n">
-        <v>0.170999190449585</v>
+        <v>0.5501095659104621</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007359440541801592</v>
+        <v>0.1300605271236754</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04746307034722961</v>
       </c>
       <c r="E15" t="n">
-        <v>2.378247778268661</v>
+        <v>3.868288257390593</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02386909882480405</v>
+        <v>0.3677940791284461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1439292096014558</v>
+        <v>0.3111136505704083</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1446812622922548</v>
       </c>
       <c r="E16" t="n">
-        <v>2.85396672533761</v>
+        <v>4.730443064910953</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3908894334149706</v>
+        <v>0.1273122897378844</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3238852417206421</v>
+        <v>0.5414445906477019</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2641278910719966</v>
       </c>
       <c r="E17" t="n">
-        <v>3.381913200870438</v>
+        <v>5.508175356860351</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7047173658199017</v>
+        <v>-0.04379460688134946</v>
       </c>
       <c r="G17" t="n">
-        <v>0.487852387605656</v>
+        <v>0.7759624215876553</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3950477061877818</v>
       </c>
       <c r="E18" t="n">
-        <v>3.863114456538878</v>
+        <v>6.288101831464841</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.041442554382394</v>
+        <v>-0.2829683863821102</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5971695895991102</v>
+        <v>0.9091212912114508</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.534538959102055</v>
       </c>
       <c r="E19" t="n">
-        <v>4.147237500086622</v>
+        <v>6.871930707861208</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.400700613675866</v>
+        <v>-0.5575355598444384</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8078504749660859</v>
+        <v>1.1583735151459</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6822010879030315</v>
       </c>
       <c r="E20" t="n">
-        <v>4.40552774181558</v>
+        <v>7.379950101318368</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.724174135256128</v>
+        <v>-0.8300313241431347</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9988844536609864</v>
+        <v>1.373872473043177</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.831549970527634</v>
       </c>
       <c r="E21" t="n">
-        <v>4.625252941053549</v>
+        <v>7.706530736644077</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.088823210040055</v>
+        <v>-1.131769215677355</v>
       </c>
       <c r="G21" t="n">
-        <v>1.199061909431523</v>
+        <v>1.58628005738622</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9716653323991143</v>
       </c>
       <c r="E22" t="n">
-        <v>4.728489707181419</v>
+        <v>7.934116587373823</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.351401079855436</v>
+        <v>-1.336989828712539</v>
       </c>
       <c r="G22" t="n">
-        <v>1.356545670555899</v>
+        <v>1.81030232882534</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.093832177835976</v>
       </c>
       <c r="E23" t="n">
-        <v>4.793126802397632</v>
+        <v>8.112378974918489</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.565204032149512</v>
+        <v>-1.544196066869243</v>
       </c>
       <c r="G23" t="n">
-        <v>1.465157711983011</v>
+        <v>1.954137770148918</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.197220239952739</v>
       </c>
       <c r="E24" t="n">
-        <v>4.80744093228674</v>
+        <v>8.216952083280344</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.706414796588321</v>
+        <v>-1.712924620596192</v>
       </c>
       <c r="G24" t="n">
-        <v>1.520253103285899</v>
+        <v>2.059231878839923</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.284880518560934</v>
       </c>
       <c r="E25" t="n">
-        <v>4.863808131039639</v>
+        <v>8.233509190417305</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.898226340729144</v>
+        <v>-1.843768895102115</v>
       </c>
       <c r="G25" t="n">
-        <v>1.623215990086662</v>
+        <v>2.15702096478897</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.357659078948245</v>
       </c>
       <c r="E26" t="n">
-        <v>4.940214167225817</v>
+        <v>8.206231439045164</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.031837740850313</v>
+        <v>-1.96652035029587</v>
       </c>
       <c r="G26" t="n">
-        <v>1.667235008832957</v>
+        <v>2.195219260824695</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.413597620487309</v>
       </c>
       <c r="E27" t="n">
-        <v>4.902242529943559</v>
+        <v>8.128564613542824</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.110597722632396</v>
+        <v>-2.029252882375309</v>
       </c>
       <c r="G27" t="n">
-        <v>1.684481536345048</v>
+        <v>2.248218058658011</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.449906239383418</v>
       </c>
       <c r="E28" t="n">
-        <v>4.911348230560284</v>
+        <v>8.020308300437128</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.141010133084608</v>
+        <v>-2.058919994773585</v>
       </c>
       <c r="G28" t="n">
-        <v>1.707714058575446</v>
+        <v>2.23968530100144</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.46591158902746</v>
       </c>
       <c r="E29" t="n">
-        <v>4.876074462051935</v>
+        <v>7.854151693954384</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.062041593768952</v>
+        <v>-2.005687455100756</v>
       </c>
       <c r="G29" t="n">
-        <v>1.649818487255765</v>
+        <v>2.193399694720472</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.46369305913732</v>
       </c>
       <c r="E30" t="n">
-        <v>4.775058636904221</v>
+        <v>7.615539839279927</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.034458482687279</v>
+        <v>-1.988790359833593</v>
       </c>
       <c r="G30" t="n">
-        <v>1.579270950239068</v>
+        <v>2.09550829752854</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.4469049012396</v>
       </c>
       <c r="E31" t="n">
-        <v>4.630388965446354</v>
+        <v>7.387922508167756</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.993908602084331</v>
+        <v>-1.937654413630337</v>
       </c>
       <c r="G31" t="n">
-        <v>1.518945093396098</v>
+        <v>2.042863653997517</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.41862327944071</v>
       </c>
       <c r="E32" t="n">
-        <v>4.624897212732136</v>
+        <v>7.189260832811033</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.888890833320709</v>
+        <v>-1.858929847278483</v>
       </c>
       <c r="G32" t="n">
-        <v>1.496889937468432</v>
+        <v>1.967573597368341</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.381790905611755</v>
       </c>
       <c r="E33" t="n">
-        <v>4.451762979484666</v>
+        <v>6.880132921502305</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.820358827788838</v>
+        <v>-1.815944172085322</v>
       </c>
       <c r="G33" t="n">
-        <v>1.411735503006065</v>
+        <v>1.858827764315919</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.338614645121992</v>
       </c>
       <c r="E34" t="n">
-        <v>4.321972510780454</v>
+        <v>6.58462184961195</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.725847636659899</v>
+        <v>-1.759199995752871</v>
       </c>
       <c r="G34" t="n">
-        <v>1.343161785967479</v>
+        <v>1.776597857380928</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.290667308183908</v>
       </c>
       <c r="E35" t="n">
-        <v>4.119083020063917</v>
+        <v>6.235885321134813</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.705003688446075</v>
+        <v>-1.767986170487972</v>
       </c>
       <c r="G35" t="n">
-        <v>1.266965094324434</v>
+        <v>1.65028439691567</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.240158302760665</v>
       </c>
       <c r="E36" t="n">
-        <v>3.906398408355525</v>
+        <v>5.855525174491622</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.631902305405068</v>
+        <v>-1.774656863524044</v>
       </c>
       <c r="G36" t="n">
-        <v>1.278815884288707</v>
+        <v>1.560012826289954</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.188206145313167</v>
       </c>
       <c r="E37" t="n">
-        <v>3.677257426733935</v>
+        <v>5.459121050945015</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.582884201929522</v>
+        <v>-1.749688985212412</v>
       </c>
       <c r="G37" t="n">
-        <v>1.170359670754605</v>
+        <v>1.437706818507527</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.135997727731559</v>
       </c>
       <c r="E38" t="n">
-        <v>3.456277734256289</v>
+        <v>5.114738259357394</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.499886173663336</v>
+        <v>-1.748037052144607</v>
       </c>
       <c r="G38" t="n">
-        <v>1.081267040450743</v>
+        <v>1.333043991055759</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.084768503619269</v>
       </c>
       <c r="E39" t="n">
-        <v>3.218481221486666</v>
+        <v>4.740110690353982</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.447912062277987</v>
+        <v>-1.749821202818601</v>
       </c>
       <c r="G39" t="n">
-        <v>0.999452674563776</v>
+        <v>1.24451171155908</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.033360906624708</v>
       </c>
       <c r="E40" t="n">
-        <v>2.999794874868755</v>
+        <v>4.377340207391327</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.404356592162916</v>
+        <v>-1.767411653508697</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9549583020428482</v>
+        <v>1.184357422800332</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.979470483797837</v>
       </c>
       <c r="E41" t="n">
-        <v>2.778797868180775</v>
+        <v>4.061026898793862</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.387851427656956</v>
+        <v>-1.827771351762775</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9119734138592477</v>
+        <v>1.125237264604278</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9216249660015291</v>
       </c>
       <c r="E42" t="n">
-        <v>2.495657012564722</v>
+        <v>3.648520559636348</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.363248721781466</v>
+        <v>-1.81776924725647</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8676569054990269</v>
+        <v>1.048138660004728</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8586189448691385</v>
       </c>
       <c r="E43" t="n">
-        <v>2.33220142289413</v>
+        <v>3.367438521030957</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.360182532533172</v>
+        <v>-1.825188386384721</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8180894693501468</v>
+        <v>0.9677503554416589</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7897354653992554</v>
       </c>
       <c r="E44" t="n">
-        <v>2.12437108615583</v>
+        <v>3.078684713228346</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.298705280702971</v>
+        <v>-1.836001110738496</v>
       </c>
       <c r="G44" t="n">
-        <v>0.722875478683547</v>
+        <v>0.8722010987022218</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7166278541958276</v>
       </c>
       <c r="E45" t="n">
-        <v>1.986483863091647</v>
+        <v>2.821172036945311</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.226578215498049</v>
+        <v>-1.811166237042614</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6612479080272611</v>
+        <v>0.8159913018614531</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6422254053478513</v>
       </c>
       <c r="E46" t="n">
-        <v>1.825028851724229</v>
+        <v>2.59695616115427</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.164557140061438</v>
+        <v>-1.756756331067052</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6165441909632002</v>
+        <v>0.7516816026224709</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5695192827875004</v>
       </c>
       <c r="E47" t="n">
-        <v>1.682120507663097</v>
+        <v>2.355564588711597</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.108718024723735</v>
+        <v>-1.721654917652486</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5612992678437887</v>
+        <v>0.6746176264435891</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5002895353609309</v>
       </c>
       <c r="E48" t="n">
-        <v>1.539360121399368</v>
+        <v>2.157946488032295</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.948921242500607</v>
+        <v>-1.626721102389478</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4376946942862883</v>
+        <v>0.568744378287541</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4366143248877551</v>
       </c>
       <c r="E49" t="n">
-        <v>1.431549255704998</v>
+        <v>1.984662722968302</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.887756433465984</v>
+        <v>-1.580146663599751</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3773814295962886</v>
+        <v>0.5313157776021319</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3789977380617817</v>
       </c>
       <c r="E50" t="n">
-        <v>1.378553605909925</v>
+        <v>1.889497526894463</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.760528467891249</v>
+        <v>-1.499153935694103</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3090422414067766</v>
+        <v>0.4626743777413302</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3271688956793852</v>
       </c>
       <c r="E51" t="n">
-        <v>1.251698682866939</v>
+        <v>1.714006987022407</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.72125983885304</v>
+        <v>-1.478932512042753</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2631469918678911</v>
+        <v>0.3989344734242589</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2801767326411811</v>
       </c>
       <c r="E52" t="n">
-        <v>1.107025863370829</v>
+        <v>1.572096571084179</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.656320531965537</v>
+        <v>-1.440681486366464</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2122463615232695</v>
+        <v>0.3418542440094108</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2367946632377775</v>
       </c>
       <c r="E53" t="n">
-        <v>1.071623025294534</v>
+        <v>1.4950845375363</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.636376922689097</v>
+        <v>-1.384862833277339</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1875342613188487</v>
+        <v>0.3085511474409308</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1954591540987155</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9737017217392967</v>
+        <v>1.385817704154728</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.510046148013504</v>
+        <v>-1.299236980088142</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1528208436176834</v>
+        <v>0.267784052199243</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1548975528835816</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9253887788300934</v>
+        <v>1.263255131255529</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.462290407873241</v>
+        <v>-1.261500658664519</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1344488924338617</v>
+        <v>0.2260442131405913</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1146992731392195</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8477801920352417</v>
+        <v>1.215220789730796</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.467315463917993</v>
+        <v>-1.236964061592123</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1436915327141394</v>
+        <v>0.2044644109875589</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.07490517179983845</v>
       </c>
       <c r="E57" t="n">
-        <v>0.796774102409493</v>
+        <v>1.149777796724477</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.474241148051716</v>
+        <v>-1.215633741469817</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1035524711018505</v>
+        <v>0.1619895049992598</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03622493923555353</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7540709636486053</v>
+        <v>1.075232251139676</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.462524149712754</v>
+        <v>-1.222387857519318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.09621754199658931</v>
+        <v>0.1462839422069216</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.216031324403126e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7314365686843014</v>
+        <v>1.027511139420082</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.469435667674385</v>
+        <v>-1.233302893115978</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08459026274754114</v>
+        <v>0.1337783602881876</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03319201388621253</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7298373652570599</v>
+        <v>0.9701019400088821</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.509042710823675</v>
+        <v>-1.235409717709838</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08471146221988129</v>
+        <v>0.1035461750253653</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.06357251753696996</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7667685759001379</v>
+        <v>0.9491548935426125</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.488375839760997</v>
+        <v>-1.231398329979204</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0957138558777731</v>
+        <v>0.09393049221333942</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.09195723596133677</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7513117081289652</v>
+        <v>0.8931166647860654</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.530489508360957</v>
+        <v>-1.238486925091981</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09750823767605589</v>
+        <v>0.09218175696957435</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1191900395494523</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7184099864364168</v>
+        <v>0.8492802322578413</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.551781265014792</v>
+        <v>-1.284128757552337</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08151462938451959</v>
+        <v>0.06008908110537464</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.146252832750242</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6921758097416983</v>
+        <v>0.7878258037048985</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.546304465482226</v>
+        <v>-1.304350968213248</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06291916748547327</v>
+        <v>0.0394143399470901</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1741943283853319</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6700813033360006</v>
+        <v>0.7470335241572699</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.612055179226759</v>
+        <v>-1.356772888038607</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03672591528790852</v>
+        <v>-0.006369154234183007</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2037241303098046</v>
       </c>
       <c r="E66" t="n">
-        <v>0.639025906072738</v>
+        <v>0.6925189459101418</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.630577449236664</v>
+        <v>-1.402728737313662</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02354507916613656</v>
+        <v>-0.03341552479549273</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2349839915853551</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6137125305639803</v>
+        <v>0.6567194550152791</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.704141593899334</v>
+        <v>-1.472719858570979</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02793974055280809</v>
+        <v>-0.06623697151285467</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2668525955181046</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6214126321053833</v>
+        <v>0.6153920089664082</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.718098421447907</v>
+        <v>-1.527337535070552</v>
       </c>
       <c r="G68" t="n">
-        <v>0.02569518928583331</v>
+        <v>-0.09107656726610082</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2978021010082331</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6104747732314648</v>
+        <v>0.5443817103280489</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.774865421057617</v>
+        <v>-1.562977263024603</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03115073956026149</v>
+        <v>-0.09288511523647532</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3266583449918693</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5418868900207874</v>
+        <v>0.4522417790053493</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.855341870691478</v>
+        <v>-1.643782682654817</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02377960801521036</v>
+        <v>-0.1204367459357226</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3523182433086395</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4555456451409594</v>
+        <v>0.3362082374213052</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.904023134075066</v>
+        <v>-1.7107564092566</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01350283717223818</v>
+        <v>-0.1404378069100904</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3739217612745009</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3656691533146902</v>
+        <v>0.2320396519736257</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.948020116553663</v>
+        <v>-1.805436807441079</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03088945238612557</v>
+        <v>-0.1580101563802913</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3908018893245556</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3134069964301434</v>
+        <v>0.1464964347882972</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.039245542766887</v>
+        <v>-1.88850251852948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.02718893343194766</v>
+        <v>-0.1822044042938041</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4025574141428114</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1918864241892451</v>
+        <v>0.01746621731967331</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.051699182054618</v>
+        <v>-1.919132930629992</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.007999838043850521</v>
+        <v>-0.2095907629853148</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4084960807708416</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1119718993816879</v>
+        <v>-0.04999152016191027</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.069268383486576</v>
+        <v>-1.997843330809754</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.004045902011143193</v>
+        <v>-0.2423319347274904</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4087169994358207</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07821391128715205</v>
+        <v>-0.1240475457999863</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.131731758296272</v>
+        <v>-2.03082690149661</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01592659833872078</v>
+        <v>-0.2556434144363303</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4038604480805141</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.03573877701853254</v>
+        <v>-0.1953254276889667</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.119161641593565</v>
+        <v>-2.054209742553092</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.009115817600852708</v>
+        <v>-0.2709129739320683</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3942461136304114</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.06132603185439652</v>
+        <v>-0.2239426693333345</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.097993445440753</v>
+        <v>-2.0138487442447</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02825454437706822</v>
+        <v>-0.2553081483634933</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3802169120472988</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1113940060838501</v>
+        <v>-0.2474852733306289</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.103014566437702</v>
+        <v>-2.027159436943979</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02508761790501124</v>
+        <v>-0.2543558667951064</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.362316225512661</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.09605518974677489</v>
+        <v>-0.2474459228525963</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.152155443404709</v>
+        <v>-1.990816909452268</v>
       </c>
       <c r="G80" t="n">
-        <v>0.06163476788249191</v>
+        <v>-0.2247233828174996</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3412572776021421</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0642710216303501</v>
+        <v>-0.2262737916519808</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.153583078747729</v>
+        <v>-1.974935843527905</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05577154665564685</v>
+        <v>-0.219014415464542</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3178594170171486</v>
       </c>
       <c r="E82" t="n">
-        <v>0.007927661444591139</v>
+        <v>-0.1383412134405179</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.094942209374111</v>
+        <v>-1.91315244497861</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0243163485355739</v>
+        <v>-0.2314979611155778</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2925727306651361</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1480909161581748</v>
+        <v>0.02949801948289577</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.057734758375245</v>
+        <v>-1.842174413732237</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05326413419541485</v>
+        <v>-0.1855019743529291</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2659016023912825</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2150040430237883</v>
+        <v>0.1862246774099265</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.962842654618951</v>
+        <v>-1.726592615636007</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09463565277968213</v>
+        <v>-0.140456695139546</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2390942103793666</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3739972884854921</v>
+        <v>0.3792639564653642</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.810197428273453</v>
+        <v>-1.554798659670325</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08804366069967484</v>
+        <v>-0.1122770308108998</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2128367624617727</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5799513944312019</v>
+        <v>0.6322056812201421</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.664470802975632</v>
+        <v>-1.386359725461696</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1621280186819343</v>
+        <v>-0.02569496100551285</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.18743433744749</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8289281650194233</v>
+        <v>0.9104009687570683</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.455995118397599</v>
+        <v>-1.16876889615221</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1624381004488306</v>
+        <v>0.02969634589217965</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1626387647514929</v>
       </c>
       <c r="E88" t="n">
-        <v>1.008183758629631</v>
+        <v>1.1404391412778</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.299447111640835</v>
+        <v>-0.9976076958732911</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1786379052452572</v>
+        <v>0.07743634584122951</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1374860803457031</v>
       </c>
       <c r="E89" t="n">
-        <v>1.216516207467626</v>
+        <v>1.376907181909045</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.11375614085319</v>
+        <v>-0.759384623921796</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2318366035069779</v>
+        <v>0.1322153593007361</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1121209667131086</v>
       </c>
       <c r="E90" t="n">
-        <v>1.339163777399376</v>
+        <v>1.576835942658416</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8624096844778505</v>
+        <v>-0.4974064553916308</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2207035662620181</v>
+        <v>0.1582071370507743</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08862105300949451</v>
       </c>
       <c r="E91" t="n">
-        <v>1.486857139589262</v>
+        <v>1.751432439669573</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5751189274484884</v>
+        <v>-0.2176875173452855</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1422355650269362</v>
+        <v>0.1197727381468541</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06926758877767826</v>
       </c>
       <c r="E92" t="n">
-        <v>1.516902016576649</v>
+        <v>1.797071124091687</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3599599576814121</v>
+        <v>-0.02513775823657241</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1496476210691412</v>
+        <v>0.1361535551422304</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05636561230644473</v>
       </c>
       <c r="E93" t="n">
-        <v>1.567420160274795</v>
+        <v>1.793568931546792</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1541317732654064</v>
+        <v>0.1852440634973562</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1166168298086462</v>
+        <v>0.09849986972247532</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05207078920800202</v>
       </c>
       <c r="E94" t="n">
-        <v>1.509057105276087</v>
+        <v>1.722176146261957</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01626996278748478</v>
+        <v>0.3602482314609306</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1035304348341523</v>
+        <v>0.1040278248764833</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05653798074672972</v>
       </c>
       <c r="E95" t="n">
-        <v>1.503684978015087</v>
+        <v>1.683448979801475</v>
       </c>
       <c r="F95" t="n">
-        <v>0.172507100767791</v>
+        <v>0.4609917513006598</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04667529015365017</v>
+        <v>0.04317309760875614</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06749276236429944</v>
       </c>
       <c r="E96" t="n">
-        <v>1.416341082954991</v>
+        <v>1.570520977943757</v>
       </c>
       <c r="F96" t="n">
-        <v>0.297935962486879</v>
+        <v>0.528997247436456</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01995766130837185</v>
+        <v>-0.02622383143026988</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08050808086866998</v>
       </c>
       <c r="E97" t="n">
-        <v>1.380056794170768</v>
+        <v>1.52389695755171</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3188546766089651</v>
+        <v>0.5333305220773968</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03284258183533927</v>
+        <v>-0.04558426662226835</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09324940594333084</v>
       </c>
       <c r="E98" t="n">
-        <v>1.232546018198952</v>
+        <v>1.396014200022514</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3626407405253076</v>
+        <v>0.5520015368942656</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0962787004619996</v>
+        <v>-0.1099474825113748</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1027638711882053</v>
       </c>
       <c r="E99" t="n">
-        <v>1.148693297549901</v>
+        <v>1.315687282205176</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3763819274542626</v>
+        <v>0.5532434379809719</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09937794411184064</v>
+        <v>-0.1118567677055125</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1109235529238754</v>
       </c>
       <c r="E100" t="n">
-        <v>1.044497953777159</v>
+        <v>1.206385820402935</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3887442736329583</v>
+        <v>0.5595961791545414</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1576607241353625</v>
+        <v>-0.1559859677902986</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1197481934847694</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9447539360794558</v>
+        <v>1.104677426841848</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3542449225322898</v>
+        <v>0.5027378864357966</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1675235279494326</v>
+        <v>-0.1851793004330624</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1416064069036604</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9104954099043463</v>
+        <v>1.019708726635794</v>
       </c>
       <c r="F102" t="n">
-        <v>0.328632483390485</v>
+        <v>0.4681566863408205</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1965515885844599</v>
+        <v>-0.2283105723949439</v>
       </c>
     </row>
   </sheetData>
